--- a/release-tracking/release-tracking.xlsx
+++ b/release-tracking/release-tracking.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-1280" yWindow="-20940" windowWidth="36520" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="-1600" yWindow="-20580" windowWidth="31820" windowHeight="19520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Release" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="133">
   <si>
     <t>Release</t>
   </si>
@@ -397,9 +397,6 @@
     <t>v0.2.0.3</t>
   </si>
   <si>
-    <t>(#312, #317)</t>
-  </si>
-  <si>
     <t>#319</t>
   </si>
   <si>
@@ -419,6 +416,19 @@
   </si>
   <si>
     <t>0010_auto_20180529_2003.py</t>
+  </si>
+  <si>
+    <t>#332, #336</t>
+  </si>
+  <si>
+    <t>tfrs-61 client-52</t>
+  </si>
+  <si>
+    <t>tfrs-113 client-62</t>
+  </si>
+  <si>
+    <t>test_organization_for_basic_bceid.json
+test_users_basic_bceid.json</t>
   </si>
 </sst>
 </file>
@@ -552,8 +562,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="69">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -730,7 +742,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="69">
+  <cellStyles count="71">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -765,6 +777,7 @@
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -799,6 +812,7 @@
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1132,14 +1146,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
+      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7.83203125" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="16" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" style="10" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" style="10" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" style="15" bestFit="1" customWidth="1"/>
@@ -1147,7 +1161,7 @@
     <col min="8" max="8" width="20" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27" style="10" customWidth="1"/>
+    <col min="11" max="11" width="29.83203125" style="10" customWidth="1"/>
     <col min="12" max="12" width="25.6640625" style="17" customWidth="1"/>
     <col min="13" max="13" width="17.5" style="26" customWidth="1"/>
     <col min="14" max="14" width="45.5" style="17" bestFit="1" customWidth="1"/>
@@ -1606,7 +1620,7 @@
     <row r="13" spans="1:14" s="30" customFormat="1">
       <c r="A13" s="21"/>
       <c r="B13" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
@@ -1697,7 +1711,7 @@
         <v>118</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H16" s="29" t="s">
         <v>119</v>
@@ -1725,7 +1739,7 @@
         <v>120</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>13</v>
@@ -1734,23 +1748,23 @@
         <v>43249</v>
       </c>
       <c r="F17" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="21" t="s">
-        <v>125</v>
-      </c>
       <c r="H17" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="I17" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>129</v>
-      </c>
       <c r="L17" s="23" t="s">
         <v>13</v>
       </c>
@@ -1759,24 +1773,44 @@
       </c>
       <c r="N17" s="23"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" ht="45">
       <c r="A18" s="21"/>
       <c r="B18" s="19" t="s">
         <v>121</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="21"/>
+        <v>129</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="29">
+        <v>43251</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H18" s="22">
+        <v>43251.666666666664</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="N18" s="23"/>
     </row>
     <row r="19" spans="1:14">
